--- a/StudentData/Assessments/Unit4/4.1.5/portfolio_returns.xlsx
+++ b/StudentData/Assessments/Unit4/4.1.5/portfolio_returns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amelia\Desktop\SEI Work\Sophia\BDA\3.3.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit4/4.1.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF61F8B-AF4B-4765-B5E9-5BC106160DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{10B9FFC6-9D77-429D-809B-6F93B3053C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63255" yWindow="2160" windowWidth="16560" windowHeight="11115" xr2:uid="{88A4927E-3150-4CD7-AF0D-0F244C08C199}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{88A4927E-3150-4CD7-AF0D-0F244C08C199}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio_returns" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Poprtfolio Returns</t>
+    <t>Portfolio Returns</t>
   </si>
 </sst>
 </file>
@@ -442,1766 +442,1764 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297EC8C-0F75-4394-A932-4BB6E190D9F4}">
   <dimension ref="A1:A351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1.115704123335215E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1.1684062476162826E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1.2162880233497875E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1.2266683359270059E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1.9247972862081686E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1.9583565034005934E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1.9669648681433505E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2.0357118722122536E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2.0435054801499875E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>2.0646806057697087E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2.0892442295799007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>2.1086697367037832E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>2.1703524361024629E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>2.1762616853499672E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>2.1782308690704189E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>2.194718141270402E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>2.2288304650597612E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>2.2331327184243133E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>2.3769384905887314E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>2.3982411891057653E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>2.4168764671316567E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>2.5347801453827645E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>3.5063950828903123E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>3.5178094943261629E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>3.5749089293208192E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>3.7816948870034173E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>3.7926503785671861E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>3.9038789547819364E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>3.9094455189833233E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>3.9615644255951876E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>3.9739476798759665E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>4.0226463919824429E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>4.0330971366576263E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>4.0508010332253819E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>4.0526915533255381E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>4.0871480704905205E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>4.1203596169107515E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>4.1220918671762141E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>4.1389475274232645E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>4.2702688819619472E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>4.3366816876162284E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>4.343494825841876E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>4.3564812804411157E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>4.3943386845544663E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>4.5083415125934723E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>4.5484684047416013E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>4.5554760006906059E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>4.5951465814175196E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>4.6025358081502987E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>4.6116232769893184E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>4.6596027228770098E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>4.6705398339615734E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>4.7553729896761432E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>4.7715664050185236E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>4.7914048647563212E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>5.4937294238908585E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>5.5089833827308032E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>5.5517521629446343E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>5.5861990482552804E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>5.6091433168343419E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>5.7412166918693552E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>5.7545939492223863E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>5.7833544111872248E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>5.798574582896121E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>5.8214783646035273E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>5.9023739709687995E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>5.924876886791397E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>5.9513513513983707E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>5.9561703262421939E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>6.039520143690591E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>6.0643296985765871E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>6.0693261830768952E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>6.1246155820455783E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>6.1252997930560382E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>6.2784922999015169E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>6.3356581045599603E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>6.3764667829961041E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>6.3883956551298304E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>7.1911274322906116E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>7.2091058557042231E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>7.2600642824775852E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>7.3468120385779212E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>7.3775520042684839E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>7.405633942106804E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>7.4656081504071437E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>7.671446882227384E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>7.6877253859383821E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>7.696941394655743E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>7.7569069989087636E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>7.7634056479300662E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>7.7866433219539455E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>7.7967519290151777E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>7.8082207652610536E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>7.8814995887288908E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>7.8824564531842611E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>7.9427876956441268E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>7.9863052868726636E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>7.9900960320621217E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>8.0438855377279239E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>8.0751038673830822E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>8.1905329159587481E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>8.2183536406935542E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>8.2808191916884488E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>8.3691067019688536E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>8.6868305398838719E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>8.6968358744441865E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>9.86720456471194E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>9.9354127472978448E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>9.9388519025347399E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>9.9419718075759667E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>9.9479680389787495E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>9.9788415249258744E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>0.10032154922921921</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>0.10051324960771058</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>0.10222465668797642</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>0.10283880255066702</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>0.10395862830114599</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>0.10489245565828442</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>0.10514817267265886</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>0.10525193348599826</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>0.10544386902899705</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>0.10561297388821667</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>0.10711593330426195</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>0.10741431832375459</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>0.10761294385001752</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>0.10784723148718789</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>0.10815584340433682</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>0.1083961354060502</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>0.10845730715020174</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>0.10860776914374792</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>0.10865735422201528</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>0.10925248767715101</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>0.10946613545561446</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>0.12073918535696015</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>0.12110350482728982</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>0.12110928638583596</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>0.12129091383795199</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>0.12130740828843434</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>0.12156000178629589</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>0.12159295670853898</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>0.12187095557838212</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>0.12188268651850509</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>0.12206369355241065</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>0.12268123313155099</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>0.1232794537012476</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>0.12397411723649499</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>0.12609241561489493</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>0.12642402057847624</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>0.12681142584172844</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>0.1282358598653166</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>0.12824336525075797</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>0.12930977038141089</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>0.12951720283159096</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>0.12966310241666723</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>0.13020376859248151</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>0.13046623434693061</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>0.13155231798088562</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>0.14586674252690801</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>0.14629397902921515</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>0.14749662037489131</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>0.14847451153028635</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>0.14860931145969991</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>0.14873208400712223</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>0.14909047287461752</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>0.14937110124464614</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>0.15105758890232934</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>0.15209463226537201</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>0.15221224971324776</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>0.15460696548621622</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>0.1552096908025884</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>0.15547729070602045</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>0.15565646705687053</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>0.15606498571635885</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>0.15634665172345552</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>0.157145333088756</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>0.15750585651777083</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>0.15767556753322787</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>0.15883962368593785</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>0.15884935459924598</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>0.15969551170646312</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>0.1600636820327852</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>0.16088643386659773</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>0.1610428731160698</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>0.16108659283429438</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>0.16171521099815156</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>0.1624335743424884</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>0.16248267071407019</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>0.16293429914510649</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>0.16343178343808984</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>0.16431360168369868</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>0.16453632192486867</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>0.1645651478231509</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>0.17406529740853505</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>0.17409528585056289</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>0.17418510947269494</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>0.17465023137900437</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>0.17474382179450787</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>0.17491020518319367</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>0.17505436476699165</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>0.17585533240013751</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>0.17602733003658644</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>0.17620482918819191</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>0.17638072719540931</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>0.17815988007459171</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>0.17880797150837702</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>0.17954444322212815</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>0.17993861844093684</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>0.18039050849964489</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>0.1811076939920182</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>0.18140124069279595</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>0.18166101470839757</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>0.18170185502127945</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>0.18189268572870965</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>0.18233868421727828</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>0.18302117286427411</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>0.1959248768873969</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>0.19642938570389268</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>0.19648761260653547</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>0.19727733859552821</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>0.19778127962264036</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>0.19896087279721553</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>0.19938761218584022</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>0.20023470043530611</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>0.2011762266961401</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>0.20195316630516025</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>0.2028100011159546</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>0.20281280313301764</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>0.20289184876321598</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>0.20354065245335173</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>0.20410908639229564</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>0.20435016732569511</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>0.20468722279593854</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>0.2048373503300831</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>0.2059352363351632</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>0.20607090252460614</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>0.20620366914246913</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>0.21500375403419847</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>0.21506865206519798</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>0.21574652825449359</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>0.21588369824206144</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>0.21598724367033395</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>0.21650700070969153</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>0.21677443188128864</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>0.21701102933545957</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>0.21708530847899898</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>0.21773088009011965</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>0.21783615003958567</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>0.21817632878175319</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>0.2182566813744472</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>0.21872554368532393</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>0.21883289447213639</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>0.2188928798623192</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>0.21948575770003698</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>0.21998481022608574</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>0.22007644104946056</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>0.2207792508608829</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>0.22113715045502047</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>0.22216940326475199</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>0.22880854390905758</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>0.23053877396184297</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>0.23065502366690183</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>0.23084904979275733</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>0.23183316924163533</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>0.23231569376659278</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A266" s="1">
         <v>0.23233514598403138</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>0.2325149571875067</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>0.23267931887564974</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>0.23279154877382691</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>0.23319097261976018</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>0.23377168429067297</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A272" s="1">
         <v>0.23411810984505876</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A273" s="1">
         <v>0.23417632561009349</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>0.23460998443819492</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>0.23520823647113753</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>0.235433649189424</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>0.23555662070240124</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>0.23643597023759155</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>0.23773807010524761</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>0.23809545831263301</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>0.23852899649701098</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>0.23888079724191014</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>0.23905675686927608</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>0.23913185920743996</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>0.25915755660519446</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>0.25945404871484989</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>0.2595995046785663</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>0.25972962196598215</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A289" s="1">
         <v>0.25982162263078268</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>0.26004002396839965</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>0.2608869275392004</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A292" s="1">
         <v>0.26120828847131505</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A293" s="1">
         <v>0.26149196423472509</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A294" s="1">
         <v>0.26217870329482484</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A295" s="1">
         <v>0.26229311280437917</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A296" s="1">
         <v>0.26230093123361875</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A297" s="1">
         <v>0.26231250601258305</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A298" s="1">
         <v>0.26234613672630358</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>0.26332626242254475</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A300" s="1">
         <v>0.26338111289639077</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A301" s="1">
         <v>0.26362363390049248</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A302" s="1">
         <v>0.26363877462536311</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A303" s="1">
         <v>0.26425259502193255</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A304" s="1">
         <v>0.26425417626165559</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A305" s="1">
         <v>0.26456187800296682</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A306" s="1">
         <v>0.26565483051104477</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A307" s="1">
         <v>0.26585600717643221</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A308" s="1">
         <v>0.26607113927969672</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A309" s="1">
         <v>0.266780106297271</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A310" s="1">
         <v>0.26834656261264656</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A311" s="1">
         <v>0.26899029265227348</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A312" s="1">
         <v>0.26911855684690922</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A313" s="1">
         <v>0.26952899007868814</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A314" s="1">
         <v>0.26963394554384734</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A315" s="1">
         <v>0.26971927435245069</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A316" s="1">
         <v>0.26990345740368171</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A317" s="1">
         <v>0.27194289658336834</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A318" s="1">
         <v>0.28439655788232154</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A319" s="1">
         <v>0.28444757136939836</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A320" s="1">
         <v>0.28456389674053129</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A321" s="1">
         <v>0.28578424914678413</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A322" s="1">
         <v>0.28652559974565994</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A323" s="1">
         <v>0.28653019342575514</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A324" s="1">
         <v>0.28717840224971047</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A325" s="1">
         <v>0.28737924023080952</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A326" s="1">
         <v>0.28807089440763756</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A327" s="1">
         <v>0.2884593643522807</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A328" s="1">
         <v>0.28848210113391703</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A329" s="1">
         <v>0.28896541491051408</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A330" s="1">
         <v>0.2890968742580754</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A331" s="1">
         <v>0.28911274089211192</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A332" s="1">
         <v>0.28912054823365763</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A333" s="1">
         <v>0.28929018472040213</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A334" s="1">
         <v>0.28934410183533266</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A335" s="1">
         <v>0.28941802306560782</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A336" s="1">
         <v>0.29007155561094811</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A337" s="1">
         <v>0.29008584257601544</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A338" s="1">
         <v>0.29017554737934836</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A339" s="1">
         <v>0.29035945595249235</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A340" s="1">
         <v>0.29103346889806803</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A341" s="1">
         <v>0.29180060164942745</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A342" s="1">
         <v>0.29249284592134994</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A343" s="1">
         <v>0.29250828649650173</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A344" s="1">
         <v>0.29298652083844012</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A345" s="1">
         <v>0.29374407719957141</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A346" s="1">
         <v>0.29388069146785334</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A347" s="1">
         <v>0.29420764886320727</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A348" s="1">
         <v>0.29423569974364105</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A349" s="1">
         <v>0.29439347978998387</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A350" s="1">
         <v>0.29442940609880364</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A351" s="1">
         <v>0.29650100000000001</v>
       </c>
@@ -2230,12 +2228,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
+    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2503,23 +2506,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
-    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3A36DA4-8D22-4701-97A9-2E2269EBC898}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25EEA432-DA5C-4F7E-B889-B5E449114764}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2544,12 +2545,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25EEA432-DA5C-4F7E-B889-B5E449114764}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3A36DA4-8D22-4701-97A9-2E2269EBC898}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
-    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>